--- a/sample_data/BOOK_SAMPLE.xlsx
+++ b/sample_data/BOOK_SAMPLE.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamao/Library/Mobile Documents/com~apple~CloudDocs/Projects/dev/matecon/sample_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamao/MyProject/matecon/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C463AD-7F1A-7744-B25F-B5778B0CB0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9165430-5BFA-2346-9C23-683EFE2AF6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21080" windowHeight="16140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="17500" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_SAMPLE" sheetId="4" r:id="rId1"/>
     <sheet name="STR_SAMPLE" sheetId="5" r:id="rId2"/>
     <sheet name="記号" sheetId="6" r:id="rId3"/>
     <sheet name="CELL_TYPE" sheetId="7" r:id="rId4"/>
-    <sheet name="EMPTY_SHEET" sheetId="9" r:id="rId5"/>
+    <sheet name="MERGED_CELLS" sheetId="11" r:id="rId5"/>
+    <sheet name="HIDDEN_ROW" sheetId="10" r:id="rId6"/>
+    <sheet name="EMPTY_SHEET" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>整数</t>
     <rPh sb="0" eb="2">
@@ -485,9 +487,6 @@
     <t>CELL_33</t>
   </si>
   <si>
-    <t>CELL_34</t>
-  </si>
-  <si>
     <t>CELL_35</t>
   </si>
   <si>
@@ -596,10 +595,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-4.503</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>整数、小数、文字列型のセルのサンプル</t>
     <rPh sb="0" eb="2">
       <t>セイスウ</t>
@@ -665,6 +660,97 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非表示された行のサンプル</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒヒョウジ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ギョウノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓非表示行</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ヒヒョウジ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ギョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑非表示行</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ヒヒョウジ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ギョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-4.5030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦横に結合</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タテヨコ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横に3マス結合</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨコニ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦に3マス結合</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タテニ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合セルのサンプル</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケツゴウセル </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,11 +760,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
-    <numFmt numFmtId="182" formatCode="0.0000"/>
-    <numFmt numFmtId="185" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    <numFmt numFmtId="186" formatCode="#.##"/>
-    <numFmt numFmtId="188" formatCode="#####"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    <numFmt numFmtId="180" formatCode="#.##"/>
+    <numFmt numFmtId="181" formatCode="#####"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -727,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,10 +826,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -752,14 +838,20 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,19 +1118,19 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1046,7 +1138,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1087,7 +1179,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1100,11 +1192,8 @@
       <c r="D12" t="s">
         <v>130</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>131</v>
-      </c>
-      <c r="F12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1115,6 +1204,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1145,7 +1235,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1156,7 +1246,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -1175,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F86C59E-2AE9-4F46-B0CD-501DA6E3E8A3}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1217,7 +1307,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1240,7 +1330,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1799,130 +1889,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2388733-6A43-AC4E-906A-7310C427E55D}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
         <v>156</v>
       </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1234.5678</v>
+      </c>
+      <c r="G4" s="2">
+        <f>100 / 2</f>
+        <v>50</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1234.5678</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1234.5678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>-4.5030000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.2345678</v>
+      </c>
+      <c r="G5" s="5">
+        <f>1 / 20</f>
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.2345678</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1234.5678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>-5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1234.5678</v>
-      </c>
-      <c r="F4" s="2">
-        <f ca="1">RAND()*100</f>
-        <v>13.754823215830225</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1234.5678</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1234.5678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>-4.5030000000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.2345678</v>
-      </c>
-      <c r="F5" s="5">
-        <f ca="1">RAND()</f>
-        <v>8.6334644079157363E-2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1.2345678</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1234.5678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" t="str">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v>G6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" t="str">
-        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
-        <v>F6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="C7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>151</v>
+      <c r="E7" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1933,6 +2033,165 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9223EEE2-5C55-DF4F-B3F3-9A846473BC40}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C76CDF3-6E4F-2A45-A346-AF997E15E4CF}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEBAB3B-A7F5-0D4B-9BA7-9C0674E525AC}">
   <dimension ref="A1"/>
   <sheetViews>
